--- a/biology/Médecine/Oritavancine/Oritavancine.xlsx
+++ b/biology/Médecine/Oritavancine/Oritavancine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'oritavancine est un antibiotique de type glycopeptide, ciblant essentiellement les bactéries Gram positif, en cours de développement. 
 </t>
@@ -511,9 +523,11 @@
           <t>Spectre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est active sur le staphylococcus aureus résistant à la méticilline ou à la Vancomycine, sur les entérocoques, qu'ils soient sensibles ou résistants à la vancomycine[1]. et sur les streptocoques[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est active sur le staphylococcus aureus résistant à la méticilline ou à la Vancomycine, sur les entérocoques, qu'ils soient sensibles ou résistants à la vancomycine. et sur les streptocoques.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle fragilise la paroi bactérienne, entraînant sa rupture et la mort de la bactérie[3]. Elle inhibe également la transglycosylation et la transpeptisation bactérienne[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fragilise la paroi bactérienne, entraînant sa rupture et la mort de la bactérie. Elle inhibe également la transglycosylation et la transpeptisation bactérienne.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa demi-vie dépasse dix jours, permettant théoriquement des traitements en prise unique[5],[6]. Les doses nécessitent une adaptation chez les patients en surpoids[7].
-La molécule ne semble pas dialysable[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa demi-vie dépasse dix jours, permettant théoriquement des traitements en prise unique,. Les doses nécessitent une adaptation chez les patients en surpoids.
+La molécule ne semble pas dialysable.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Évaluation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les infections cutanées à bacilles Gram positif, l'oritavancine, donnée en une dose unique, est au moins équivalente à la vancomycine donnée de manière journalière[9]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les infections cutanées à bacilles Gram positif, l'oritavancine, donnée en une dose unique, est au moins équivalente à la vancomycine donnée de manière journalière. 
 </t>
         </is>
       </c>
